--- a/docs/extract_14_01_2022.xlsx
+++ b/docs/extract_14_01_2022.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MeilleursAgents\ma_bi_eng_technical_test\bi-hiring-test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{F3D1690A-7174-4ABA-A93A-89A6EDE588D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC2641-F7B0-4BCF-9983-9D807B559B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agents_per_realtor" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7395" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9318" uniqueCount="739">
   <si>
     <t>ma_db=# select * from agents_per_realtor where ds = '20220114'</t>
   </si>
@@ -1466,12 +1466,801 @@
   </si>
   <si>
     <t xml:space="preserve"> RATING_CUSTOMER_UNKNOWN </t>
+  </si>
+  <si>
+    <t>ma_db=# select * from sales_per_realtor where ds = '20220108';</t>
+  </si>
+  <si>
+    <t>--------------------------+----------------+---------------------------+------------+------------+------------+-----------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sale_date  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> item_type  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> number_of_sales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apartment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-01-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> House      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-12-31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Site       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-01-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-02-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Building   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-03-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-04-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-05-31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-06-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-07-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-09-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-10-31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-11-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-12-31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-01-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-02-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-03-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-04-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-04-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-04-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-04-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-05-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-06-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-07-31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-08-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-08-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-08-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-08-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-08-12 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1816,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3622,7 +4411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4733,7 +5522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28543,7 +29332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28782,10 +29571,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -29596,15 +30385,7386 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B4:H325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G8" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G10" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11" t="s">
+        <v>483</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13" t="s">
+        <v>484</v>
+      </c>
+      <c r="G13" t="s">
+        <v>483</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" t="s">
+        <v>482</v>
+      </c>
+      <c r="G14" t="s">
+        <v>483</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G15" t="s">
+        <v>483</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>490</v>
+      </c>
+      <c r="F16" t="s">
+        <v>484</v>
+      </c>
+      <c r="G16" t="s">
+        <v>483</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>491</v>
+      </c>
+      <c r="F17" t="s">
+        <v>484</v>
+      </c>
+      <c r="G17" t="s">
+        <v>483</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F18" t="s">
+        <v>484</v>
+      </c>
+      <c r="G18" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" t="s">
+        <v>483</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" t="s">
+        <v>484</v>
+      </c>
+      <c r="G22" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F23" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" t="s">
+        <v>483</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>496</v>
+      </c>
+      <c r="F25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" t="s">
+        <v>483</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>498</v>
+      </c>
+      <c r="F26" t="s">
+        <v>482</v>
+      </c>
+      <c r="G26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F27" t="s">
+        <v>484</v>
+      </c>
+      <c r="G27" t="s">
+        <v>483</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>484</v>
+      </c>
+      <c r="G28" t="s">
+        <v>483</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>501</v>
+      </c>
+      <c r="F29" t="s">
+        <v>482</v>
+      </c>
+      <c r="G29" t="s">
+        <v>483</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>502</v>
+      </c>
+      <c r="F30" t="s">
+        <v>484</v>
+      </c>
+      <c r="G30" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>503</v>
+      </c>
+      <c r="F31" t="s">
+        <v>484</v>
+      </c>
+      <c r="G31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>503</v>
+      </c>
+      <c r="F32" t="s">
+        <v>504</v>
+      </c>
+      <c r="G32" t="s">
+        <v>483</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>505</v>
+      </c>
+      <c r="F33" t="s">
+        <v>482</v>
+      </c>
+      <c r="G33" t="s">
+        <v>483</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>505</v>
+      </c>
+      <c r="F34" t="s">
+        <v>484</v>
+      </c>
+      <c r="G34" t="s">
+        <v>483</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>506</v>
+      </c>
+      <c r="F35" t="s">
+        <v>484</v>
+      </c>
+      <c r="G35" t="s">
+        <v>483</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>507</v>
+      </c>
+      <c r="F36" t="s">
+        <v>484</v>
+      </c>
+      <c r="G36" t="s">
+        <v>483</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>508</v>
+      </c>
+      <c r="F37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G37" t="s">
+        <v>483</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" t="s">
+        <v>482</v>
+      </c>
+      <c r="G38" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>509</v>
+      </c>
+      <c r="F39" t="s">
+        <v>484</v>
+      </c>
+      <c r="G39" t="s">
+        <v>483</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>510</v>
+      </c>
+      <c r="F40" t="s">
+        <v>482</v>
+      </c>
+      <c r="G40" t="s">
+        <v>483</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>511</v>
+      </c>
+      <c r="F41" t="s">
+        <v>484</v>
+      </c>
+      <c r="G41" t="s">
+        <v>483</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>512</v>
+      </c>
+      <c r="F42" t="s">
+        <v>482</v>
+      </c>
+      <c r="G42" t="s">
+        <v>483</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>513</v>
+      </c>
+      <c r="F43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G43" t="s">
+        <v>483</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>513</v>
+      </c>
+      <c r="F44" t="s">
+        <v>484</v>
+      </c>
+      <c r="G44" t="s">
+        <v>483</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>514</v>
+      </c>
+      <c r="F45" t="s">
+        <v>482</v>
+      </c>
+      <c r="G45" t="s">
+        <v>483</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>515</v>
+      </c>
+      <c r="F46" t="s">
+        <v>482</v>
+      </c>
+      <c r="G46" t="s">
+        <v>483</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>515</v>
+      </c>
+      <c r="F47" t="s">
+        <v>484</v>
+      </c>
+      <c r="G47" t="s">
+        <v>483</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>516</v>
+      </c>
+      <c r="F48" t="s">
+        <v>484</v>
+      </c>
+      <c r="G48" t="s">
+        <v>483</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>517</v>
+      </c>
+      <c r="F49" t="s">
+        <v>518</v>
+      </c>
+      <c r="G49" t="s">
+        <v>483</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F50" t="s">
+        <v>484</v>
+      </c>
+      <c r="G50" t="s">
+        <v>483</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>519</v>
+      </c>
+      <c r="F51" t="s">
+        <v>482</v>
+      </c>
+      <c r="G51" t="s">
+        <v>483</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>520</v>
+      </c>
+      <c r="F52" t="s">
+        <v>504</v>
+      </c>
+      <c r="G52" t="s">
+        <v>483</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>521</v>
+      </c>
+      <c r="F53" t="s">
+        <v>484</v>
+      </c>
+      <c r="G53" t="s">
+        <v>483</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>522</v>
+      </c>
+      <c r="F54" t="s">
+        <v>504</v>
+      </c>
+      <c r="G54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>523</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>483</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>524</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>483</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>525</v>
+      </c>
+      <c r="F57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G57" t="s">
+        <v>483</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>526</v>
+      </c>
+      <c r="F58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" t="s">
+        <v>483</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>527</v>
+      </c>
+      <c r="F59" t="s">
+        <v>484</v>
+      </c>
+      <c r="G59" t="s">
+        <v>483</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>528</v>
+      </c>
+      <c r="F60" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" t="s">
+        <v>483</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>529</v>
+      </c>
+      <c r="F61" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" t="s">
+        <v>483</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>530</v>
+      </c>
+      <c r="F62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>483</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>531</v>
+      </c>
+      <c r="F63" t="s">
+        <v>484</v>
+      </c>
+      <c r="G63" t="s">
+        <v>483</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>532</v>
+      </c>
+      <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>483</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>533</v>
+      </c>
+      <c r="F65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G65" t="s">
+        <v>483</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>533</v>
+      </c>
+      <c r="F66" t="s">
+        <v>484</v>
+      </c>
+      <c r="G66" t="s">
+        <v>483</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>534</v>
+      </c>
+      <c r="F67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" t="s">
+        <v>483</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>535</v>
+      </c>
+      <c r="F68" t="s">
+        <v>484</v>
+      </c>
+      <c r="G68" t="s">
+        <v>483</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>536</v>
+      </c>
+      <c r="F69" t="s">
+        <v>497</v>
+      </c>
+      <c r="G69" t="s">
+        <v>483</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>537</v>
+      </c>
+      <c r="F70" t="s">
+        <v>484</v>
+      </c>
+      <c r="G70" t="s">
+        <v>483</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71" t="s">
+        <v>484</v>
+      </c>
+      <c r="G71" t="s">
+        <v>483</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>539</v>
+      </c>
+      <c r="F72" t="s">
+        <v>482</v>
+      </c>
+      <c r="G72" t="s">
+        <v>483</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>539</v>
+      </c>
+      <c r="F73" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" t="s">
+        <v>483</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>540</v>
+      </c>
+      <c r="F74" t="s">
+        <v>482</v>
+      </c>
+      <c r="G74" t="s">
+        <v>483</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>541</v>
+      </c>
+      <c r="F75" t="s">
+        <v>484</v>
+      </c>
+      <c r="G75" t="s">
+        <v>483</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>542</v>
+      </c>
+      <c r="F76" t="s">
+        <v>484</v>
+      </c>
+      <c r="G76" t="s">
+        <v>483</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>543</v>
+      </c>
+      <c r="F77" t="s">
+        <v>482</v>
+      </c>
+      <c r="G77" t="s">
+        <v>483</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>543</v>
+      </c>
+      <c r="F78" t="s">
+        <v>484</v>
+      </c>
+      <c r="G78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>544</v>
+      </c>
+      <c r="F79" t="s">
+        <v>482</v>
+      </c>
+      <c r="G79" t="s">
+        <v>483</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>545</v>
+      </c>
+      <c r="F80" t="s">
+        <v>484</v>
+      </c>
+      <c r="G80" t="s">
+        <v>483</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>546</v>
+      </c>
+      <c r="F81" t="s">
+        <v>482</v>
+      </c>
+      <c r="G81" t="s">
+        <v>483</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>547</v>
+      </c>
+      <c r="F82" t="s">
+        <v>482</v>
+      </c>
+      <c r="G82" t="s">
+        <v>483</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>547</v>
+      </c>
+      <c r="F83" t="s">
+        <v>484</v>
+      </c>
+      <c r="G83" t="s">
+        <v>483</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>548</v>
+      </c>
+      <c r="F84" t="s">
+        <v>482</v>
+      </c>
+      <c r="G84" t="s">
+        <v>483</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>549</v>
+      </c>
+      <c r="F85" t="s">
+        <v>482</v>
+      </c>
+      <c r="G85" t="s">
+        <v>483</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>549</v>
+      </c>
+      <c r="F86" t="s">
+        <v>484</v>
+      </c>
+      <c r="G86" t="s">
+        <v>483</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>550</v>
+      </c>
+      <c r="F87" t="s">
+        <v>482</v>
+      </c>
+      <c r="G87" t="s">
+        <v>483</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>550</v>
+      </c>
+      <c r="F88" t="s">
+        <v>484</v>
+      </c>
+      <c r="G88" t="s">
+        <v>483</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>551</v>
+      </c>
+      <c r="F89" t="s">
+        <v>484</v>
+      </c>
+      <c r="G89" t="s">
+        <v>483</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>552</v>
+      </c>
+      <c r="F90" t="s">
+        <v>484</v>
+      </c>
+      <c r="G90" t="s">
+        <v>483</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>553</v>
+      </c>
+      <c r="F91" t="s">
+        <v>484</v>
+      </c>
+      <c r="G91" t="s">
+        <v>483</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>554</v>
+      </c>
+      <c r="F92" t="s">
+        <v>484</v>
+      </c>
+      <c r="G92" t="s">
+        <v>483</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" t="s">
+        <v>497</v>
+      </c>
+      <c r="G93" t="s">
+        <v>483</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>555</v>
+      </c>
+      <c r="F94" t="s">
+        <v>482</v>
+      </c>
+      <c r="G94" t="s">
+        <v>483</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>555</v>
+      </c>
+      <c r="F95" t="s">
+        <v>484</v>
+      </c>
+      <c r="G95" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>556</v>
+      </c>
+      <c r="F96" t="s">
+        <v>482</v>
+      </c>
+      <c r="G96" t="s">
+        <v>483</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>557</v>
+      </c>
+      <c r="F97" t="s">
+        <v>482</v>
+      </c>
+      <c r="G97" t="s">
+        <v>483</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>558</v>
+      </c>
+      <c r="F98" t="s">
+        <v>484</v>
+      </c>
+      <c r="G98" t="s">
+        <v>483</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>559</v>
+      </c>
+      <c r="F99" t="s">
+        <v>484</v>
+      </c>
+      <c r="G99" t="s">
+        <v>483</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>560</v>
+      </c>
+      <c r="F100" t="s">
+        <v>484</v>
+      </c>
+      <c r="G100" t="s">
+        <v>483</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>561</v>
+      </c>
+      <c r="F101" t="s">
+        <v>484</v>
+      </c>
+      <c r="G101" t="s">
+        <v>483</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>562</v>
+      </c>
+      <c r="F102" t="s">
+        <v>482</v>
+      </c>
+      <c r="G102" t="s">
+        <v>483</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>563</v>
+      </c>
+      <c r="F103" t="s">
+        <v>482</v>
+      </c>
+      <c r="G103" t="s">
+        <v>483</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>563</v>
+      </c>
+      <c r="F104" t="s">
+        <v>484</v>
+      </c>
+      <c r="G104" t="s">
+        <v>483</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>564</v>
+      </c>
+      <c r="F105" t="s">
+        <v>484</v>
+      </c>
+      <c r="G105" t="s">
+        <v>483</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>565</v>
+      </c>
+      <c r="F106" t="s">
+        <v>482</v>
+      </c>
+      <c r="G106" t="s">
+        <v>483</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>566</v>
+      </c>
+      <c r="F107" t="s">
+        <v>484</v>
+      </c>
+      <c r="G107" t="s">
+        <v>483</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>567</v>
+      </c>
+      <c r="F108" t="s">
+        <v>484</v>
+      </c>
+      <c r="G108" t="s">
+        <v>483</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>568</v>
+      </c>
+      <c r="F109" t="s">
+        <v>482</v>
+      </c>
+      <c r="G109" t="s">
+        <v>483</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>568</v>
+      </c>
+      <c r="F110" t="s">
+        <v>484</v>
+      </c>
+      <c r="G110" t="s">
+        <v>483</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>569</v>
+      </c>
+      <c r="F111" t="s">
+        <v>484</v>
+      </c>
+      <c r="G111" t="s">
+        <v>483</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>569</v>
+      </c>
+      <c r="F112" t="s">
+        <v>504</v>
+      </c>
+      <c r="G112" t="s">
+        <v>483</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>570</v>
+      </c>
+      <c r="F113" t="s">
+        <v>484</v>
+      </c>
+      <c r="G113" t="s">
+        <v>483</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>570</v>
+      </c>
+      <c r="F114" t="s">
+        <v>504</v>
+      </c>
+      <c r="G114" t="s">
+        <v>483</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>571</v>
+      </c>
+      <c r="F115" t="s">
+        <v>482</v>
+      </c>
+      <c r="G115" t="s">
+        <v>483</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>572</v>
+      </c>
+      <c r="F116" t="s">
+        <v>482</v>
+      </c>
+      <c r="G116" t="s">
+        <v>483</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>572</v>
+      </c>
+      <c r="F117" t="s">
+        <v>484</v>
+      </c>
+      <c r="G117" t="s">
+        <v>483</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>573</v>
+      </c>
+      <c r="F118" t="s">
+        <v>482</v>
+      </c>
+      <c r="G118" t="s">
+        <v>483</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>574</v>
+      </c>
+      <c r="F119" t="s">
+        <v>484</v>
+      </c>
+      <c r="G119" t="s">
+        <v>483</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>575</v>
+      </c>
+      <c r="F120" t="s">
+        <v>484</v>
+      </c>
+      <c r="G120" t="s">
+        <v>483</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>576</v>
+      </c>
+      <c r="F121" t="s">
+        <v>484</v>
+      </c>
+      <c r="G121" t="s">
+        <v>483</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>577</v>
+      </c>
+      <c r="F122" t="s">
+        <v>484</v>
+      </c>
+      <c r="G122" t="s">
+        <v>483</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>578</v>
+      </c>
+      <c r="F123" t="s">
+        <v>482</v>
+      </c>
+      <c r="G123" t="s">
+        <v>483</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>579</v>
+      </c>
+      <c r="F124" t="s">
+        <v>482</v>
+      </c>
+      <c r="G124" t="s">
+        <v>483</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>579</v>
+      </c>
+      <c r="F125" t="s">
+        <v>484</v>
+      </c>
+      <c r="G125" t="s">
+        <v>483</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>580</v>
+      </c>
+      <c r="F126" t="s">
+        <v>482</v>
+      </c>
+      <c r="G126" t="s">
+        <v>483</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>581</v>
+      </c>
+      <c r="F127" t="s">
+        <v>484</v>
+      </c>
+      <c r="G127" t="s">
+        <v>483</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>582</v>
+      </c>
+      <c r="F128" t="s">
+        <v>484</v>
+      </c>
+      <c r="G128" t="s">
+        <v>483</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>582</v>
+      </c>
+      <c r="F129" t="s">
+        <v>504</v>
+      </c>
+      <c r="G129" t="s">
+        <v>483</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>583</v>
+      </c>
+      <c r="F130" t="s">
+        <v>482</v>
+      </c>
+      <c r="G130" t="s">
+        <v>483</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>583</v>
+      </c>
+      <c r="F131" t="s">
+        <v>484</v>
+      </c>
+      <c r="G131" t="s">
+        <v>483</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>583</v>
+      </c>
+      <c r="F132" t="s">
+        <v>504</v>
+      </c>
+      <c r="G132" t="s">
+        <v>483</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>584</v>
+      </c>
+      <c r="F133" t="s">
+        <v>482</v>
+      </c>
+      <c r="G133" t="s">
+        <v>483</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>584</v>
+      </c>
+      <c r="F134" t="s">
+        <v>484</v>
+      </c>
+      <c r="G134" t="s">
+        <v>483</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>585</v>
+      </c>
+      <c r="F135" t="s">
+        <v>484</v>
+      </c>
+      <c r="G135" t="s">
+        <v>483</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>586</v>
+      </c>
+      <c r="F136" t="s">
+        <v>482</v>
+      </c>
+      <c r="G136" t="s">
+        <v>483</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>587</v>
+      </c>
+      <c r="F137" t="s">
+        <v>484</v>
+      </c>
+      <c r="G137" t="s">
+        <v>483</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>588</v>
+      </c>
+      <c r="F138" t="s">
+        <v>484</v>
+      </c>
+      <c r="G138" t="s">
+        <v>483</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>589</v>
+      </c>
+      <c r="F139" t="s">
+        <v>497</v>
+      </c>
+      <c r="G139" t="s">
+        <v>483</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>590</v>
+      </c>
+      <c r="F140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G140" t="s">
+        <v>483</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>591</v>
+      </c>
+      <c r="F141" t="s">
+        <v>484</v>
+      </c>
+      <c r="G141" t="s">
+        <v>483</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>592</v>
+      </c>
+      <c r="F142" t="s">
+        <v>482</v>
+      </c>
+      <c r="G142" t="s">
+        <v>483</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>593</v>
+      </c>
+      <c r="F143" t="s">
+        <v>484</v>
+      </c>
+      <c r="G143" t="s">
+        <v>483</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>594</v>
+      </c>
+      <c r="F144" t="s">
+        <v>482</v>
+      </c>
+      <c r="G144" t="s">
+        <v>483</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>595</v>
+      </c>
+      <c r="F145" t="s">
+        <v>484</v>
+      </c>
+      <c r="G145" t="s">
+        <v>483</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>596</v>
+      </c>
+      <c r="F146" t="s">
+        <v>482</v>
+      </c>
+      <c r="G146" t="s">
+        <v>483</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>597</v>
+      </c>
+      <c r="F147" t="s">
+        <v>482</v>
+      </c>
+      <c r="G147" t="s">
+        <v>483</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>597</v>
+      </c>
+      <c r="F148" t="s">
+        <v>497</v>
+      </c>
+      <c r="G148" t="s">
+        <v>483</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>598</v>
+      </c>
+      <c r="F149" t="s">
+        <v>484</v>
+      </c>
+      <c r="G149" t="s">
+        <v>483</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>599</v>
+      </c>
+      <c r="F150" t="s">
+        <v>484</v>
+      </c>
+      <c r="G150" t="s">
+        <v>483</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>600</v>
+      </c>
+      <c r="F151" t="s">
+        <v>484</v>
+      </c>
+      <c r="G151" t="s">
+        <v>483</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>601</v>
+      </c>
+      <c r="F152" t="s">
+        <v>484</v>
+      </c>
+      <c r="G152" t="s">
+        <v>483</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>602</v>
+      </c>
+      <c r="F153" t="s">
+        <v>482</v>
+      </c>
+      <c r="G153" t="s">
+        <v>483</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>603</v>
+      </c>
+      <c r="F154" t="s">
+        <v>484</v>
+      </c>
+      <c r="G154" t="s">
+        <v>483</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>604</v>
+      </c>
+      <c r="F155" t="s">
+        <v>482</v>
+      </c>
+      <c r="G155" t="s">
+        <v>483</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>605</v>
+      </c>
+      <c r="F156" t="s">
+        <v>484</v>
+      </c>
+      <c r="G156" t="s">
+        <v>483</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>606</v>
+      </c>
+      <c r="F157" t="s">
+        <v>504</v>
+      </c>
+      <c r="G157" t="s">
+        <v>483</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>607</v>
+      </c>
+      <c r="F158" t="s">
+        <v>497</v>
+      </c>
+      <c r="G158" t="s">
+        <v>483</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>608</v>
+      </c>
+      <c r="F159" t="s">
+        <v>484</v>
+      </c>
+      <c r="G159" t="s">
+        <v>483</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>609</v>
+      </c>
+      <c r="F160" t="s">
+        <v>484</v>
+      </c>
+      <c r="G160" t="s">
+        <v>483</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>610</v>
+      </c>
+      <c r="F161" t="s">
+        <v>484</v>
+      </c>
+      <c r="G161" t="s">
+        <v>483</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" t="s">
+        <v>611</v>
+      </c>
+      <c r="F162" t="s">
+        <v>482</v>
+      </c>
+      <c r="G162" t="s">
+        <v>483</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>611</v>
+      </c>
+      <c r="F163" t="s">
+        <v>484</v>
+      </c>
+      <c r="G163" t="s">
+        <v>483</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>612</v>
+      </c>
+      <c r="F164" t="s">
+        <v>484</v>
+      </c>
+      <c r="G164" t="s">
+        <v>483</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" t="s">
+        <v>613</v>
+      </c>
+      <c r="F165" t="s">
+        <v>482</v>
+      </c>
+      <c r="G165" t="s">
+        <v>483</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s">
+        <v>613</v>
+      </c>
+      <c r="F166" t="s">
+        <v>484</v>
+      </c>
+      <c r="G166" t="s">
+        <v>483</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>614</v>
+      </c>
+      <c r="F167" t="s">
+        <v>484</v>
+      </c>
+      <c r="G167" t="s">
+        <v>483</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>615</v>
+      </c>
+      <c r="F168" t="s">
+        <v>518</v>
+      </c>
+      <c r="G168" t="s">
+        <v>483</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>616</v>
+      </c>
+      <c r="F169" t="s">
+        <v>484</v>
+      </c>
+      <c r="G169" t="s">
+        <v>483</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>617</v>
+      </c>
+      <c r="F170" t="s">
+        <v>504</v>
+      </c>
+      <c r="G170" t="s">
+        <v>483</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>618</v>
+      </c>
+      <c r="F171" t="s">
+        <v>482</v>
+      </c>
+      <c r="G171" t="s">
+        <v>483</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>618</v>
+      </c>
+      <c r="F172" t="s">
+        <v>484</v>
+      </c>
+      <c r="G172" t="s">
+        <v>483</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>619</v>
+      </c>
+      <c r="F173" t="s">
+        <v>484</v>
+      </c>
+      <c r="G173" t="s">
+        <v>483</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>619</v>
+      </c>
+      <c r="F174" t="s">
+        <v>504</v>
+      </c>
+      <c r="G174" t="s">
+        <v>483</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>620</v>
+      </c>
+      <c r="F175" t="s">
+        <v>484</v>
+      </c>
+      <c r="G175" t="s">
+        <v>483</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>621</v>
+      </c>
+      <c r="F176" t="s">
+        <v>484</v>
+      </c>
+      <c r="G176" t="s">
+        <v>483</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>622</v>
+      </c>
+      <c r="F177" t="s">
+        <v>484</v>
+      </c>
+      <c r="G177" t="s">
+        <v>483</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>622</v>
+      </c>
+      <c r="F178" t="s">
+        <v>504</v>
+      </c>
+      <c r="G178" t="s">
+        <v>483</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>623</v>
+      </c>
+      <c r="F179" t="s">
+        <v>484</v>
+      </c>
+      <c r="G179" t="s">
+        <v>483</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>624</v>
+      </c>
+      <c r="F180" t="s">
+        <v>484</v>
+      </c>
+      <c r="G180" t="s">
+        <v>483</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>625</v>
+      </c>
+      <c r="F181" t="s">
+        <v>484</v>
+      </c>
+      <c r="G181" t="s">
+        <v>483</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>626</v>
+      </c>
+      <c r="F182" t="s">
+        <v>484</v>
+      </c>
+      <c r="G182" t="s">
+        <v>483</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>627</v>
+      </c>
+      <c r="F183" t="s">
+        <v>482</v>
+      </c>
+      <c r="G183" t="s">
+        <v>483</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>627</v>
+      </c>
+      <c r="F184" t="s">
+        <v>484</v>
+      </c>
+      <c r="G184" t="s">
+        <v>483</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>628</v>
+      </c>
+      <c r="F185" t="s">
+        <v>484</v>
+      </c>
+      <c r="G185" t="s">
+        <v>483</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>629</v>
+      </c>
+      <c r="F186" t="s">
+        <v>484</v>
+      </c>
+      <c r="G186" t="s">
+        <v>483</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
+        <v>630</v>
+      </c>
+      <c r="F187" t="s">
+        <v>484</v>
+      </c>
+      <c r="G187" t="s">
+        <v>483</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>631</v>
+      </c>
+      <c r="F188" t="s">
+        <v>484</v>
+      </c>
+      <c r="G188" t="s">
+        <v>483</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>632</v>
+      </c>
+      <c r="F189" t="s">
+        <v>484</v>
+      </c>
+      <c r="G189" t="s">
+        <v>483</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>633</v>
+      </c>
+      <c r="F190" t="s">
+        <v>482</v>
+      </c>
+      <c r="G190" t="s">
+        <v>483</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" t="s">
+        <v>634</v>
+      </c>
+      <c r="F191" t="s">
+        <v>484</v>
+      </c>
+      <c r="G191" t="s">
+        <v>483</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" t="s">
+        <v>635</v>
+      </c>
+      <c r="F192" t="s">
+        <v>482</v>
+      </c>
+      <c r="G192" t="s">
+        <v>483</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>635</v>
+      </c>
+      <c r="F193" t="s">
+        <v>484</v>
+      </c>
+      <c r="G193" t="s">
+        <v>483</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>636</v>
+      </c>
+      <c r="F194" t="s">
+        <v>482</v>
+      </c>
+      <c r="G194" t="s">
+        <v>483</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" t="s">
+        <v>637</v>
+      </c>
+      <c r="F195" t="s">
+        <v>484</v>
+      </c>
+      <c r="G195" t="s">
+        <v>483</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>638</v>
+      </c>
+      <c r="F196" t="s">
+        <v>484</v>
+      </c>
+      <c r="G196" t="s">
+        <v>483</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" t="s">
+        <v>639</v>
+      </c>
+      <c r="F197" t="s">
+        <v>482</v>
+      </c>
+      <c r="G197" t="s">
+        <v>483</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" t="s">
+        <v>639</v>
+      </c>
+      <c r="F198" t="s">
+        <v>504</v>
+      </c>
+      <c r="G198" t="s">
+        <v>483</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" t="s">
+        <v>640</v>
+      </c>
+      <c r="F199" t="s">
+        <v>484</v>
+      </c>
+      <c r="G199" t="s">
+        <v>483</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" t="s">
+        <v>641</v>
+      </c>
+      <c r="F200" t="s">
+        <v>484</v>
+      </c>
+      <c r="G200" t="s">
+        <v>483</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" t="s">
+        <v>642</v>
+      </c>
+      <c r="F201" t="s">
+        <v>484</v>
+      </c>
+      <c r="G201" t="s">
+        <v>483</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>643</v>
+      </c>
+      <c r="F202" t="s">
+        <v>484</v>
+      </c>
+      <c r="G202" t="s">
+        <v>483</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>644</v>
+      </c>
+      <c r="F203" t="s">
+        <v>484</v>
+      </c>
+      <c r="G203" t="s">
+        <v>483</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>644</v>
+      </c>
+      <c r="F204" t="s">
+        <v>497</v>
+      </c>
+      <c r="G204" t="s">
+        <v>483</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>645</v>
+      </c>
+      <c r="F205" t="s">
+        <v>482</v>
+      </c>
+      <c r="G205" t="s">
+        <v>483</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>646</v>
+      </c>
+      <c r="F206" t="s">
+        <v>482</v>
+      </c>
+      <c r="G206" t="s">
+        <v>483</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>647</v>
+      </c>
+      <c r="F207" t="s">
+        <v>482</v>
+      </c>
+      <c r="G207" t="s">
+        <v>483</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>647</v>
+      </c>
+      <c r="F208" t="s">
+        <v>518</v>
+      </c>
+      <c r="G208" t="s">
+        <v>483</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>647</v>
+      </c>
+      <c r="F209" t="s">
+        <v>484</v>
+      </c>
+      <c r="G209" t="s">
+        <v>483</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>648</v>
+      </c>
+      <c r="F210" t="s">
+        <v>482</v>
+      </c>
+      <c r="G210" t="s">
+        <v>483</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>648</v>
+      </c>
+      <c r="F211" t="s">
+        <v>484</v>
+      </c>
+      <c r="G211" t="s">
+        <v>483</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>649</v>
+      </c>
+      <c r="F212" t="s">
+        <v>484</v>
+      </c>
+      <c r="G212" t="s">
+        <v>483</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>650</v>
+      </c>
+      <c r="F213" t="s">
+        <v>484</v>
+      </c>
+      <c r="G213" t="s">
+        <v>483</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" t="s">
+        <v>651</v>
+      </c>
+      <c r="F214" t="s">
+        <v>482</v>
+      </c>
+      <c r="G214" t="s">
+        <v>483</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>651</v>
+      </c>
+      <c r="F215" t="s">
+        <v>484</v>
+      </c>
+      <c r="G215" t="s">
+        <v>483</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" t="s">
+        <v>652</v>
+      </c>
+      <c r="F216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G216" t="s">
+        <v>483</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" t="s">
+        <v>653</v>
+      </c>
+      <c r="F217" t="s">
+        <v>482</v>
+      </c>
+      <c r="G217" t="s">
+        <v>483</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>654</v>
+      </c>
+      <c r="F218" t="s">
+        <v>518</v>
+      </c>
+      <c r="G218" t="s">
+        <v>483</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" t="s">
+        <v>654</v>
+      </c>
+      <c r="F219" t="s">
+        <v>504</v>
+      </c>
+      <c r="G219" t="s">
+        <v>483</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>655</v>
+      </c>
+      <c r="F220" t="s">
+        <v>484</v>
+      </c>
+      <c r="G220" t="s">
+        <v>483</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>656</v>
+      </c>
+      <c r="F221" t="s">
+        <v>484</v>
+      </c>
+      <c r="G221" t="s">
+        <v>483</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>657</v>
+      </c>
+      <c r="F222" t="s">
+        <v>482</v>
+      </c>
+      <c r="G222" t="s">
+        <v>483</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>657</v>
+      </c>
+      <c r="F223" t="s">
+        <v>484</v>
+      </c>
+      <c r="G223" t="s">
+        <v>483</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>658</v>
+      </c>
+      <c r="F224" t="s">
+        <v>484</v>
+      </c>
+      <c r="G224" t="s">
+        <v>483</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>659</v>
+      </c>
+      <c r="F225" t="s">
+        <v>484</v>
+      </c>
+      <c r="G225" t="s">
+        <v>483</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>660</v>
+      </c>
+      <c r="F226" t="s">
+        <v>482</v>
+      </c>
+      <c r="G226" t="s">
+        <v>483</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>661</v>
+      </c>
+      <c r="F227" t="s">
+        <v>484</v>
+      </c>
+      <c r="G227" t="s">
+        <v>483</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" t="s">
+        <v>662</v>
+      </c>
+      <c r="F228" t="s">
+        <v>482</v>
+      </c>
+      <c r="G228" t="s">
+        <v>483</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>662</v>
+      </c>
+      <c r="F229" t="s">
+        <v>484</v>
+      </c>
+      <c r="G229" t="s">
+        <v>483</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" t="s">
+        <v>663</v>
+      </c>
+      <c r="F230" t="s">
+        <v>482</v>
+      </c>
+      <c r="G230" t="s">
+        <v>483</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>664</v>
+      </c>
+      <c r="F231" t="s">
+        <v>484</v>
+      </c>
+      <c r="G231" t="s">
+        <v>483</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>665</v>
+      </c>
+      <c r="F232" t="s">
+        <v>484</v>
+      </c>
+      <c r="G232" t="s">
+        <v>483</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>665</v>
+      </c>
+      <c r="F233" t="s">
+        <v>504</v>
+      </c>
+      <c r="G233" t="s">
+        <v>483</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" t="s">
+        <v>666</v>
+      </c>
+      <c r="F234" t="s">
+        <v>482</v>
+      </c>
+      <c r="G234" t="s">
+        <v>483</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>484</v>
+      </c>
+      <c r="G235" t="s">
+        <v>483</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>497</v>
+      </c>
+      <c r="G236" t="s">
+        <v>483</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" t="s">
+        <v>667</v>
+      </c>
+      <c r="F237" t="s">
+        <v>482</v>
+      </c>
+      <c r="G237" t="s">
+        <v>483</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" t="s">
+        <v>667</v>
+      </c>
+      <c r="F238" t="s">
+        <v>484</v>
+      </c>
+      <c r="G238" t="s">
+        <v>483</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>668</v>
+      </c>
+      <c r="F239" t="s">
+        <v>484</v>
+      </c>
+      <c r="G239" t="s">
+        <v>483</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" t="s">
+        <v>669</v>
+      </c>
+      <c r="F240" t="s">
+        <v>484</v>
+      </c>
+      <c r="G240" t="s">
+        <v>483</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>670</v>
+      </c>
+      <c r="F241" t="s">
+        <v>482</v>
+      </c>
+      <c r="G241" t="s">
+        <v>483</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>670</v>
+      </c>
+      <c r="F242" t="s">
+        <v>484</v>
+      </c>
+      <c r="G242" t="s">
+        <v>483</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>671</v>
+      </c>
+      <c r="F243" t="s">
+        <v>482</v>
+      </c>
+      <c r="G243" t="s">
+        <v>483</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" t="s">
+        <v>671</v>
+      </c>
+      <c r="F244" t="s">
+        <v>484</v>
+      </c>
+      <c r="G244" t="s">
+        <v>483</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" t="s">
+        <v>672</v>
+      </c>
+      <c r="F245" t="s">
+        <v>484</v>
+      </c>
+      <c r="G245" t="s">
+        <v>483</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>673</v>
+      </c>
+      <c r="F246" t="s">
+        <v>482</v>
+      </c>
+      <c r="G246" t="s">
+        <v>483</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" t="s">
+        <v>673</v>
+      </c>
+      <c r="F247" t="s">
+        <v>484</v>
+      </c>
+      <c r="G247" t="s">
+        <v>483</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>674</v>
+      </c>
+      <c r="F248" t="s">
+        <v>482</v>
+      </c>
+      <c r="G248" t="s">
+        <v>483</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>674</v>
+      </c>
+      <c r="F249" t="s">
+        <v>504</v>
+      </c>
+      <c r="G249" t="s">
+        <v>483</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" t="s">
+        <v>675</v>
+      </c>
+      <c r="F250" t="s">
+        <v>484</v>
+      </c>
+      <c r="G250" t="s">
+        <v>483</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>676</v>
+      </c>
+      <c r="F251" t="s">
+        <v>482</v>
+      </c>
+      <c r="G251" t="s">
+        <v>483</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>676</v>
+      </c>
+      <c r="F252" t="s">
+        <v>484</v>
+      </c>
+      <c r="G252" t="s">
+        <v>483</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" t="s">
+        <v>677</v>
+      </c>
+      <c r="F253" t="s">
+        <v>482</v>
+      </c>
+      <c r="G253" t="s">
+        <v>483</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" t="s">
+        <v>678</v>
+      </c>
+      <c r="F254" t="s">
+        <v>484</v>
+      </c>
+      <c r="G254" t="s">
+        <v>483</v>
+      </c>
+      <c r="H254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" t="s">
+        <v>679</v>
+      </c>
+      <c r="F255" t="s">
+        <v>484</v>
+      </c>
+      <c r="G255" t="s">
+        <v>483</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>680</v>
+      </c>
+      <c r="F256" t="s">
+        <v>484</v>
+      </c>
+      <c r="G256" t="s">
+        <v>483</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" t="s">
+        <v>681</v>
+      </c>
+      <c r="F257" t="s">
+        <v>484</v>
+      </c>
+      <c r="G257" t="s">
+        <v>483</v>
+      </c>
+      <c r="H257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>682</v>
+      </c>
+      <c r="F258" t="s">
+        <v>482</v>
+      </c>
+      <c r="G258" t="s">
+        <v>483</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>683</v>
+      </c>
+      <c r="F259" t="s">
+        <v>484</v>
+      </c>
+      <c r="G259" t="s">
+        <v>483</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>684</v>
+      </c>
+      <c r="F260" t="s">
+        <v>482</v>
+      </c>
+      <c r="G260" t="s">
+        <v>483</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>684</v>
+      </c>
+      <c r="F261" t="s">
+        <v>484</v>
+      </c>
+      <c r="G261" t="s">
+        <v>483</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" t="s">
+        <v>685</v>
+      </c>
+      <c r="F262" t="s">
+        <v>482</v>
+      </c>
+      <c r="G262" t="s">
+        <v>483</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" t="s">
+        <v>685</v>
+      </c>
+      <c r="F263" t="s">
+        <v>484</v>
+      </c>
+      <c r="G263" t="s">
+        <v>483</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" t="s">
+        <v>686</v>
+      </c>
+      <c r="F264" t="s">
+        <v>482</v>
+      </c>
+      <c r="G264" t="s">
+        <v>483</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="s">
+        <v>687</v>
+      </c>
+      <c r="F265" t="s">
+        <v>484</v>
+      </c>
+      <c r="G265" t="s">
+        <v>483</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" t="s">
+        <v>688</v>
+      </c>
+      <c r="F266" t="s">
+        <v>484</v>
+      </c>
+      <c r="G266" t="s">
+        <v>483</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>689</v>
+      </c>
+      <c r="F267" t="s">
+        <v>482</v>
+      </c>
+      <c r="G267" t="s">
+        <v>483</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" t="s">
+        <v>690</v>
+      </c>
+      <c r="F268" t="s">
+        <v>482</v>
+      </c>
+      <c r="G268" t="s">
+        <v>483</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" t="s">
+        <v>690</v>
+      </c>
+      <c r="F269" t="s">
+        <v>484</v>
+      </c>
+      <c r="G269" t="s">
+        <v>483</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" t="s">
+        <v>691</v>
+      </c>
+      <c r="F270" t="s">
+        <v>484</v>
+      </c>
+      <c r="G270" t="s">
+        <v>483</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" t="s">
+        <v>692</v>
+      </c>
+      <c r="F271" t="s">
+        <v>484</v>
+      </c>
+      <c r="G271" t="s">
+        <v>483</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" t="s">
+        <v>693</v>
+      </c>
+      <c r="F272" t="s">
+        <v>484</v>
+      </c>
+      <c r="G272" t="s">
+        <v>483</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" t="s">
+        <v>694</v>
+      </c>
+      <c r="F273" t="s">
+        <v>482</v>
+      </c>
+      <c r="G273" t="s">
+        <v>483</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" t="s">
+        <v>694</v>
+      </c>
+      <c r="F274" t="s">
+        <v>484</v>
+      </c>
+      <c r="G274" t="s">
+        <v>483</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" t="s">
+        <v>695</v>
+      </c>
+      <c r="F275" t="s">
+        <v>482</v>
+      </c>
+      <c r="G275" t="s">
+        <v>483</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="E276" t="s">
+        <v>696</v>
+      </c>
+      <c r="F276" t="s">
+        <v>484</v>
+      </c>
+      <c r="G276" t="s">
+        <v>483</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" t="s">
+        <v>697</v>
+      </c>
+      <c r="F277" t="s">
+        <v>484</v>
+      </c>
+      <c r="G277" t="s">
+        <v>483</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>698</v>
+      </c>
+      <c r="F278" t="s">
+        <v>484</v>
+      </c>
+      <c r="G278" t="s">
+        <v>483</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" t="s">
+        <v>699</v>
+      </c>
+      <c r="F279" t="s">
+        <v>484</v>
+      </c>
+      <c r="G279" t="s">
+        <v>483</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" t="s">
+        <v>13</v>
+      </c>
+      <c r="E280" t="s">
+        <v>700</v>
+      </c>
+      <c r="F280" t="s">
+        <v>482</v>
+      </c>
+      <c r="G280" t="s">
+        <v>483</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>701</v>
+      </c>
+      <c r="F281" t="s">
+        <v>484</v>
+      </c>
+      <c r="G281" t="s">
+        <v>483</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s">
+        <v>13</v>
+      </c>
+      <c r="E282" t="s">
+        <v>702</v>
+      </c>
+      <c r="F282" t="s">
+        <v>484</v>
+      </c>
+      <c r="G282" t="s">
+        <v>483</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283" t="s">
+        <v>703</v>
+      </c>
+      <c r="F283" t="s">
+        <v>482</v>
+      </c>
+      <c r="G283" t="s">
+        <v>483</v>
+      </c>
+      <c r="H283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" t="s">
+        <v>13</v>
+      </c>
+      <c r="E284" t="s">
+        <v>703</v>
+      </c>
+      <c r="F284" t="s">
+        <v>484</v>
+      </c>
+      <c r="G284" t="s">
+        <v>483</v>
+      </c>
+      <c r="H284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" t="s">
+        <v>13</v>
+      </c>
+      <c r="E285" t="s">
+        <v>704</v>
+      </c>
+      <c r="F285" t="s">
+        <v>484</v>
+      </c>
+      <c r="G285" t="s">
+        <v>483</v>
+      </c>
+      <c r="H285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>705</v>
+      </c>
+      <c r="F286" t="s">
+        <v>518</v>
+      </c>
+      <c r="G286" t="s">
+        <v>483</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" t="s">
+        <v>706</v>
+      </c>
+      <c r="F287" t="s">
+        <v>484</v>
+      </c>
+      <c r="G287" t="s">
+        <v>483</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>707</v>
+      </c>
+      <c r="F288" t="s">
+        <v>484</v>
+      </c>
+      <c r="G288" t="s">
+        <v>483</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>708</v>
+      </c>
+      <c r="F289" t="s">
+        <v>484</v>
+      </c>
+      <c r="G289" t="s">
+        <v>483</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="E290" t="s">
+        <v>709</v>
+      </c>
+      <c r="F290" t="s">
+        <v>482</v>
+      </c>
+      <c r="G290" t="s">
+        <v>483</v>
+      </c>
+      <c r="H290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>709</v>
+      </c>
+      <c r="F291" t="s">
+        <v>484</v>
+      </c>
+      <c r="G291" t="s">
+        <v>483</v>
+      </c>
+      <c r="H291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>13</v>
+      </c>
+      <c r="E292" t="s">
+        <v>710</v>
+      </c>
+      <c r="F292" t="s">
+        <v>482</v>
+      </c>
+      <c r="G292" t="s">
+        <v>483</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>710</v>
+      </c>
+      <c r="F293" t="s">
+        <v>484</v>
+      </c>
+      <c r="G293" t="s">
+        <v>483</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>711</v>
+      </c>
+      <c r="F294" t="s">
+        <v>497</v>
+      </c>
+      <c r="G294" t="s">
+        <v>483</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" t="s">
+        <v>712</v>
+      </c>
+      <c r="F295" t="s">
+        <v>484</v>
+      </c>
+      <c r="G295" t="s">
+        <v>483</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" t="s">
+        <v>713</v>
+      </c>
+      <c r="F296" t="s">
+        <v>484</v>
+      </c>
+      <c r="G296" t="s">
+        <v>483</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" t="s">
+        <v>714</v>
+      </c>
+      <c r="F297" t="s">
+        <v>482</v>
+      </c>
+      <c r="G297" t="s">
+        <v>483</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" t="s">
+        <v>715</v>
+      </c>
+      <c r="F298" t="s">
+        <v>482</v>
+      </c>
+      <c r="G298" t="s">
+        <v>483</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" t="s">
+        <v>715</v>
+      </c>
+      <c r="F299" t="s">
+        <v>484</v>
+      </c>
+      <c r="G299" t="s">
+        <v>483</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" t="s">
+        <v>716</v>
+      </c>
+      <c r="F300" t="s">
+        <v>484</v>
+      </c>
+      <c r="G300" t="s">
+        <v>483</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" t="s">
+        <v>717</v>
+      </c>
+      <c r="F301" t="s">
+        <v>482</v>
+      </c>
+      <c r="G301" t="s">
+        <v>483</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>717</v>
+      </c>
+      <c r="F302" t="s">
+        <v>484</v>
+      </c>
+      <c r="G302" t="s">
+        <v>483</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>718</v>
+      </c>
+      <c r="F303" t="s">
+        <v>484</v>
+      </c>
+      <c r="G303" t="s">
+        <v>483</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" t="s">
+        <v>719</v>
+      </c>
+      <c r="F304" t="s">
+        <v>484</v>
+      </c>
+      <c r="G304" t="s">
+        <v>483</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" t="s">
+        <v>720</v>
+      </c>
+      <c r="F305" t="s">
+        <v>484</v>
+      </c>
+      <c r="G305" t="s">
+        <v>483</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306" t="s">
+        <v>721</v>
+      </c>
+      <c r="F306" t="s">
+        <v>484</v>
+      </c>
+      <c r="G306" t="s">
+        <v>483</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>722</v>
+      </c>
+      <c r="F307" t="s">
+        <v>484</v>
+      </c>
+      <c r="G307" t="s">
+        <v>483</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>723</v>
+      </c>
+      <c r="F308" t="s">
+        <v>482</v>
+      </c>
+      <c r="G308" t="s">
+        <v>483</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>724</v>
+      </c>
+      <c r="F309" t="s">
+        <v>482</v>
+      </c>
+      <c r="G309" t="s">
+        <v>483</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>725</v>
+      </c>
+      <c r="F310" t="s">
+        <v>484</v>
+      </c>
+      <c r="G310" t="s">
+        <v>483</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" t="s">
+        <v>726</v>
+      </c>
+      <c r="F311" t="s">
+        <v>484</v>
+      </c>
+      <c r="G311" t="s">
+        <v>483</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" t="s">
+        <v>13</v>
+      </c>
+      <c r="E312" t="s">
+        <v>727</v>
+      </c>
+      <c r="F312" t="s">
+        <v>484</v>
+      </c>
+      <c r="G312" t="s">
+        <v>483</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313" t="s">
+        <v>728</v>
+      </c>
+      <c r="F313" t="s">
+        <v>484</v>
+      </c>
+      <c r="G313" t="s">
+        <v>483</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" t="s">
+        <v>13</v>
+      </c>
+      <c r="E314" t="s">
+        <v>729</v>
+      </c>
+      <c r="F314" t="s">
+        <v>484</v>
+      </c>
+      <c r="G314" t="s">
+        <v>483</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" t="s">
+        <v>13</v>
+      </c>
+      <c r="E315" t="s">
+        <v>730</v>
+      </c>
+      <c r="F315" t="s">
+        <v>484</v>
+      </c>
+      <c r="G315" t="s">
+        <v>483</v>
+      </c>
+      <c r="H315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" t="s">
+        <v>13</v>
+      </c>
+      <c r="E316" t="s">
+        <v>731</v>
+      </c>
+      <c r="F316" t="s">
+        <v>484</v>
+      </c>
+      <c r="G316" t="s">
+        <v>483</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" t="s">
+        <v>732</v>
+      </c>
+      <c r="F317" t="s">
+        <v>484</v>
+      </c>
+      <c r="G317" t="s">
+        <v>483</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>11</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" t="s">
+        <v>733</v>
+      </c>
+      <c r="F318" t="s">
+        <v>482</v>
+      </c>
+      <c r="G318" t="s">
+        <v>483</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319" t="s">
+        <v>733</v>
+      </c>
+      <c r="F319" t="s">
+        <v>484</v>
+      </c>
+      <c r="G319" t="s">
+        <v>483</v>
+      </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>11</v>
+      </c>
+      <c r="C320" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" t="s">
+        <v>734</v>
+      </c>
+      <c r="F320" t="s">
+        <v>484</v>
+      </c>
+      <c r="G320" t="s">
+        <v>483</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" t="s">
+        <v>13</v>
+      </c>
+      <c r="E321" t="s">
+        <v>734</v>
+      </c>
+      <c r="F321" t="s">
+        <v>504</v>
+      </c>
+      <c r="G321" t="s">
+        <v>483</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>11</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" t="s">
+        <v>735</v>
+      </c>
+      <c r="F322" t="s">
+        <v>484</v>
+      </c>
+      <c r="G322" t="s">
+        <v>483</v>
+      </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" t="s">
+        <v>736</v>
+      </c>
+      <c r="F323" t="s">
+        <v>484</v>
+      </c>
+      <c r="G323" t="s">
+        <v>483</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" t="s">
+        <v>737</v>
+      </c>
+      <c r="F324" t="s">
+        <v>484</v>
+      </c>
+      <c r="G324" t="s">
+        <v>483</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" t="s">
+        <v>738</v>
+      </c>
+      <c r="F325" t="s">
+        <v>484</v>
+      </c>
+      <c r="G325" t="s">
+        <v>483</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>